--- a/Sprint 5/Product Backlog-Burndown.xlsx
+++ b/Sprint 5/Product Backlog-Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -262,16 +262,46 @@
     <t xml:space="preserve">Integração, teste e correção de possiveis erros nos módulos desenvolvidos </t>
   </si>
   <si>
-    <t>Modulo prontuário</t>
-  </si>
-  <si>
-    <t>Integração com o banco de dados</t>
-  </si>
-  <si>
-    <t>Reajuste do código</t>
-  </si>
-  <si>
-    <t>Inserção e relacionamento de funcionário na tela de agendamento e tratamento de excessão de rg na tela de cadastro de paciente</t>
+    <t>Reajuste de código</t>
+  </si>
+  <si>
+    <t>Módulo Calendário</t>
+  </si>
+  <si>
+    <t>Estudo da biblioteca JCalendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementação gráfica do JDateChooser e seus eventos </t>
+  </si>
+  <si>
+    <t>Integrar busca de paciente</t>
+  </si>
+  <si>
+    <t>Inserção de busca de funcionário</t>
+  </si>
+  <si>
+    <t>Inserção de metodos para busca de data</t>
+  </si>
+  <si>
+    <t>Tratamento de exceção para busca de hora</t>
+  </si>
+  <si>
+    <t>Reajuste de agendamento</t>
+  </si>
+  <si>
+    <t>Tratamento de exceção do campo rg da tela cadastro de paciente</t>
+  </si>
+  <si>
+    <t>Tratamento de exceção do campo rg da tela cadastro de funcionário</t>
+  </si>
+  <si>
+    <t>Busca de bibliotecas e estudo destas, para implementação no sistema.</t>
+  </si>
+  <si>
+    <t>Codificação de métodos e tratamento de exceções do módulo</t>
+  </si>
+  <si>
+    <t>Correção de erros encontrados após a entrega da Sprint anterior</t>
   </si>
 </sst>
 </file>
@@ -281,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -397,6 +427,18 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -569,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,33 +707,24 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,14 +776,22 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,22 +1147,22 @@
                   <c:v>392.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>392.07</c:v>
+                  <c:v>356.16999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,11 +1242,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151122936"/>
-        <c:axId val="151123320"/>
+        <c:axId val="210594816"/>
+        <c:axId val="210595208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151122936"/>
+        <c:axId val="210594816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1281,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151123320"/>
+        <c:crossAx val="210595208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1289,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151123320"/>
+        <c:axId val="210595208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1294,7 +1335,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151122936"/>
+        <c:crossAx val="210594816"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1678,14 +1719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875"/>
     <col min="5" max="5" width="14.140625"/>
@@ -1694,14 +1735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1905,10 +1946,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1938,8 +1979,8 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="23" t="s">
         <v>43</v>
       </c>
@@ -1967,8 +2008,8 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="23" t="s">
         <v>44</v>
       </c>
@@ -1996,8 +2037,8 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>45</v>
       </c>
@@ -2025,8 +2066,8 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
@@ -2054,8 +2095,8 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="23" t="s">
         <v>47</v>
       </c>
@@ -2083,8 +2124,8 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="23" t="s">
         <v>48</v>
       </c>
@@ -2112,10 +2153,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2145,8 +2186,8 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="24" t="s">
         <v>52</v>
       </c>
@@ -2174,8 +2215,8 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
@@ -2203,8 +2244,8 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="25" t="s">
         <v>53</v>
       </c>
@@ -2232,19 +2273,19 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>3.3</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>3.3</v>
       </c>
       <c r="F19" s="6">
@@ -2265,15 +2306,15 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="35">
         <v>2.5</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="35">
         <v>2.5</v>
       </c>
       <c r="F20" s="6">
@@ -2294,19 +2335,19 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="35">
         <v>3</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="35">
         <v>3</v>
       </c>
       <c r="F21" s="6">
@@ -2327,15 +2368,15 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="35">
         <v>2.25</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="35">
         <v>2.25</v>
       </c>
       <c r="F22" s="6">
@@ -2356,19 +2397,19 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>76</v>
+      <c r="B23" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="35">
         <v>3.33</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="35">
         <v>3.33</v>
       </c>
       <c r="F23" s="6">
@@ -2389,15 +2430,15 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="35">
         <v>3</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="35">
         <v>3</v>
       </c>
       <c r="F24" s="6">
@@ -2418,19 +2459,19 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>76</v>
+      <c r="B25" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="35">
         <v>3.2</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>3.2</v>
       </c>
       <c r="F25" s="6">
@@ -2451,15 +2492,15 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="35">
         <v>2.75</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>2.75</v>
       </c>
       <c r="F26" s="6">
@@ -2480,19 +2521,19 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="35">
         <v>5.4</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="35">
         <v>5.4</v>
       </c>
       <c r="F27" s="6">
@@ -2513,15 +2554,15 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="35">
         <v>4.2</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="35">
         <v>4.2</v>
       </c>
       <c r="F28" s="6">
@@ -2541,17 +2582,25 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="29">
+        <v>4.25</v>
+      </c>
+      <c r="E29" s="29">
+        <v>4.25</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2566,13 +2615,21 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2587,15 +2644,25 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="E31" s="63">
+        <v>4.2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2610,15 +2677,21 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E32" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2633,13 +2706,21 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="61"/>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="35">
+        <v>5.75</v>
+      </c>
+      <c r="E33" s="35">
+        <v>5.75</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2654,13 +2735,21 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E34" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2675,12 +2764,21 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E35" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2695,12 +2793,25 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2715,15 +2826,21 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+    <row r="37" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="E37" s="35">
+        <v>3.2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2739,10 +2856,9 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
@@ -2760,18 +2876,14 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11">
-        <f>SUM(D4:D38)</f>
-        <v>107.93</v>
-      </c>
-      <c r="E39" s="11">
-        <f>SUM(E4:E32)</f>
-        <v>107.93</v>
-      </c>
-      <c r="F39" s="6"/>
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2786,29 +2898,145 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11">
+        <f>SUM(D4:D44)</f>
+        <v>143.82999999999998</v>
+      </c>
+      <c r="E45" s="11">
+        <f>SUM(E4:E38)</f>
+        <v>143.82999999999998</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E46" s="26"/>
+    </row>
     <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2824,7 +3052,13 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A1:F1"/>
@@ -2875,20 +3109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="1"/>
@@ -2903,40 +3137,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="56" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1"/>
@@ -2951,18 +3185,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3088,27 +3322,27 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="1"/>
-        <v>392.07</v>
+        <v>356.16999999999996</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -3150,22 +3384,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="20" t="s">
         <v>10</v>
       </c>
@@ -3184,10 +3418,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="54">
+      <c r="A9" s="51">
         <v>50</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="18">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>39</v>
@@ -3206,7 +3440,7 @@
       </c>
       <c r="G9" s="18">
         <f>SUMIF('Product Backlog'!F:F,5,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="H9" s="18">
         <f>SUMIF('Product Backlog'!F:F,6,'Product Backlog'!E:E)</f>
@@ -3230,11 +3464,11 @@
       </c>
       <c r="M9" s="18">
         <f>SUM(C9:L9)</f>
-        <v>107.93</v>
+        <v>143.83000000000001</v>
       </c>
       <c r="N9" s="18">
         <f>M9/10</f>
-        <v>10.793000000000001</v>
+        <v>14.383000000000001</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
